--- a/KS/Laba4/5.3.1.3.xlsx
+++ b/KS/Laba4/5.3.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Du\Desktop\github\KS\Laba4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B2D392-C819-4926-9345-2AB130FEC049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDCB237-E64B-49FE-8DF8-0BCFC140CD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="38">
   <si>
     <t>Проверка</t>
   </si>
@@ -140,6 +140,15 @@
   <si>
     <t>0060.7036.2849</t>
   </si>
+  <si>
+    <t>000C.85CC.1DA7</t>
+  </si>
+  <si>
+    <t>00D0.BA8E.741A</t>
+  </si>
+  <si>
+    <t>10.10.10.4</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,6 +341,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -611,7 +629,7 @@
   <dimension ref="A1:AB213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1168,10 +1186,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1298,10 +1316,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>7</v>
@@ -1368,14 +1386,16 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1512,10 +1532,10 @@
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>27</v>
@@ -1592,16 +1612,16 @@
         <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1718,10 +1738,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>27</v>
@@ -1917,17 +1937,17 @@
       <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
+      <c r="C36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2064,10 +2084,10 @@
         <v>26</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>26</v>
@@ -2263,17 +2283,17 @@
       <c r="B45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>12</v>
+      <c r="C45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
